--- a/AACS_ThreatAnalysis_RiskAssessment_Result.xlsx
+++ b/AACS_ThreatAnalysis_RiskAssessment_Result.xlsx
@@ -1780,7 +1780,7 @@
     <xdr:ext cx="10172700" cy="4943475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="이미지"/>
+        <xdr:cNvPr id="0" name="image3.png" title="이미지"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1808,7 +1808,7 @@
     <xdr:ext cx="8924925" cy="5362575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="이미지"/>
+        <xdr:cNvPr id="0" name="image2.png" title="이미지"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
